--- a/PS-VRP/Archivio/Archivio output/output.xlsx
+++ b/PS-VRP/Archivio/Archivio output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252569</v>
+        <v>243569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,14 +551,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>9.583333333333334</v>
+        <v>21.675</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -577,11 +577,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:26:35</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1150</v>
+        <v>2601</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -607,19 +607,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-7.310127314814815</v>
+        <v>-357.3185243055556</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>243569</v>
+        <v>252569</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,28 +628,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>21.675</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:26:35</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:45:35</t>
+          <t>08-09-2025 07:57:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:45:35</t>
+          <t>08-09-2025 07:57:40</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2601</v>
+        <v>1150</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -684,19 +684,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-357.3383738425926</v>
+        <v>-7.338373842592593</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252906</v>
+        <v>235572</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,14 +705,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>34.725</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -721,21 +721,21 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:24:15</t>
+          <t>08-09-2025 08:41:15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:24:15</t>
+          <t>08-09-2025 08:41:15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:59</t>
+          <t>08-09-2025 10:04:14</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4167</v>
+        <v>9958</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -744,36 +744,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>06-11-2023 00:00:00</t>
+        </is>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-672.4196122685186</v>
+      </c>
+      <c r="T4" t="n">
         <v>4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>25-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-14.37429398148148</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252843</v>
+        <v>253687</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -782,37 +782,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>19.2</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:59</t>
+          <t>08-09-2025 10:04:14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:59</t>
+          <t>08-09-2025 10:27:14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:59</t>
+          <t>08-09-2025 10:27:14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 09:43:11</t>
+          <t>08-09-2025 11:11:28</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2304</v>
+        <v>5308</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -821,14 +821,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -838,19 +838,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-40.40498842592593</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253313</v>
+        <v>252906</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -859,37 +859,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>100.0083333333333</v>
+        <v>34.725</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 09:43:11</t>
+          <t>08-09-2025 11:11:28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:08:11</t>
+          <t>08-09-2025 11:43:28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:08:11</t>
+          <t>08-09-2025 11:43:28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:48:11</t>
+          <t>08-09-2025 12:18:12</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>12001</v>
+        <v>4167</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -915,19 +915,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-3.491799768518518</v>
+        <v>-14.51263888888889</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>253706</v>
+        <v>253284</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,37 +936,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>311</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 11:48:11</t>
+          <t>08-09-2025 12:18:12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:11:11</t>
+          <t>08-09-2025 12:39:12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:11:11</t>
+          <t>08-09-2025 12:39:12</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 09:22:11</t>
+          <t>08-09-2025 13:36:11</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>37320</v>
+        <v>6839</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -975,11 +975,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>76</v>
@@ -992,19 +992,19 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-11.56679976851852</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253095</v>
+        <v>252815</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1013,37 +1013,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>76.31666666666666</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:22:11</t>
+          <t>08-09-2025 13:36:11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:04:11</t>
+          <t>08-09-2025 13:59:11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:04:11</t>
+          <t>08-09-2025 13:59:11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 11:20:30</t>
+          <t>09-09-2025 10:02:08</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>9158</v>
+        <v>29153</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1052,14 +1052,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1069,58 +1069,58 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-4.418148148148148</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>253284</v>
+        <v>253361</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>56.99166666666667</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-09-2025 10:02:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>09-09-2025 10:44:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>09-09-2025 10:44:08</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>08-09-2025 08:23:59</t>
+          <t>09-09-2025 12:00:50</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>6839</v>
+        <v>9205</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1129,14 +1129,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1146,11 +1146,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-11.34999421296296</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1158,46 +1158,46 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253140</v>
+        <v>253372</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>55.83333333333334</v>
+        <v>103.775</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-09-2025 08:23:59</t>
+          <t>09-09-2025 12:00:50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-09-2025 08:50:59</t>
+          <t>09-09-2025 12:15:50</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-09-2025 08:50:59</t>
+          <t>09-09-2025 12:15:50</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>08-09-2025 09:46:49</t>
+          <t>09-09-2025 13:59:37</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>6700</v>
+        <v>12453</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1206,14 +1206,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1223,11 +1223,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-13.40751736111111</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1235,11 +1235,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252827</v>
+        <v>253375</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1248,33 +1248,33 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>410</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-09-2025 09:46:49</t>
+          <t>09-09-2025 13:59:37</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-09-2025 10:13:49</t>
+          <t>09-09-2025 14:14:37</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-09-2025 10:13:49</t>
+          <t>09-09-2025 14:14:37</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:49</t>
+          <t>10-09-2025 07:06:30</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>49200</v>
+        <v>6226</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1300,58 +1300,58 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-5.37765625</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253361</v>
+        <v>253368</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>76.70833333333333</v>
+        <v>103.775</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:49</t>
+          <t>10-09-2025 07:06:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09-09-2025 09:45:49</t>
+          <t>10-09-2025 07:21:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-09-2025 09:45:49</t>
+          <t>10-09-2025 07:21:30</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>09-09-2025 11:02:32</t>
+          <t>10-09-2025 09:05:16</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>9205</v>
+        <v>12453</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -1389,7 +1389,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250891</v>
+        <v>252827</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1398,37 +1398,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>77.49166666666666</v>
+        <v>410</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-09-2025 11:02:32</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09-09-2025 11:33:32</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09-09-2025 11:33:32</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>09-09-2025 12:51:01</t>
+          <t>08-09-2025 14:17:00</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>9299</v>
+        <v>49200</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1454,11 +1454,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-27.53543402777778</v>
+        <v>-4.595138888888889</v>
       </c>
       <c r="T13" t="n">
         <v>4</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253100</v>
+        <v>252995</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1475,37 +1475,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>47.35</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-09-2025 12:51:01</t>
+          <t>08-09-2025 14:17:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09-09-2025 13:18:01</t>
+          <t>08-09-2025 14:44:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-09-2025 13:18:01</t>
+          <t>08-09-2025 14:44:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>09-09-2025 14:05:22</t>
+          <t>09-09-2025 07:52:19</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5682</v>
+        <v>8198</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1514,14 +1514,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.587065972222222</v>
+        <v>-8.327997685185185</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>244023</v>
+        <v>253374</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1552,37 +1552,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>8.308333333333334</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-09-2025 14:05:22</t>
+          <t>09-09-2025 07:52:19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09-09-2025 14:34:22</t>
+          <t>09-09-2025 08:34:19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09-09-2025 14:34:22</t>
+          <t>09-09-2025 08:34:19</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>09-09-2025 14:42:41</t>
+          <t>09-09-2025 09:33:55</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>997</v>
+        <v>7153</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
         <v>70</v>
@@ -1608,11 +1608,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-344.612974537037</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1620,46 +1620,46 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253591</v>
+        <v>252939</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>17.41666666666667</v>
+        <v>89.8</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>09-09-2025 09:33:55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:34:00</t>
+          <t>09-09-2025 10:00:55</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:34:00</t>
+          <t>09-09-2025 10:00:55</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:51:25</t>
+          <t>09-09-2025 11:30:43</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2090</v>
+        <v>10776</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1668,80 +1668,75 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>76</v>
-      </c>
-      <c r="O16" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-18.47967013888889</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253194</v>
+        <v>253267</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>199.0833333333333</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05-09-2025 07:51:25</t>
+          <t>09-09-2025 11:30:43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05-09-2025 08:10:25</t>
+          <t>09-09-2025 11:57:43</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>05-09-2025 08:10:25</t>
+          <t>09-09-2025 11:57:43</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>05-09-2025 11:29:30</t>
+          <t>09-09-2025 14:42:05</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>23890</v>
+        <v>19724</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1750,14 +1745,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1767,58 +1762,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-16.47881944444444</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253409</v>
+        <v>253359</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
-        <v>27.18333333333333</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05-09-2025 11:29:30</t>
+          <t>09-09-2025 14:42:05</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05-09-2025 11:44:30</t>
+          <t>10-09-2025 07:09:05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>05-09-2025 11:44:30</t>
+          <t>10-09-2025 07:09:05</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>05-09-2025 12:11:41</t>
+          <t>10-09-2025 09:23:06</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>3262</v>
+        <v>16082</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1827,17 +1822,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>76</v>
-      </c>
-      <c r="O18" t="n">
-        <v>40299</v>
+        <v>70</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1847,7 +1839,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -1859,46 +1851,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252664</v>
+        <v>253268</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>365.975</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05-09-2025 12:11:41</t>
+          <t>10-09-2025 09:23:06</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05-09-2025 12:43:41</t>
+          <t>10-09-2025 09:50:06</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-09-2025 12:43:41</t>
+          <t>10-09-2025 09:50:06</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>08-09-2025 10:49:39</t>
+          <t>10-09-2025 11:08:40</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>43917</v>
+        <v>9427</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1907,82 +1899,75 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P19" t="n">
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-6.45115162037037</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252939</v>
+        <v>253313</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
-        <v>89.8</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-09-2025 10:49:39</t>
+          <t>10-09-2025 11:08:40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-09-2025 11:06:39</t>
+          <t>10-09-2025 11:54:40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-09-2025 11:06:39</t>
+          <t>10-09-2025 11:54:40</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>08-09-2025 12:36:27</t>
+          <t>10-09-2025 13:34:40</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>10776</v>
+        <v>12001</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1991,14 +1976,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2008,58 +1993,58 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-17.52531828703704</v>
+        <v>-5.565746527777778</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252833</v>
+        <v>253706</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E21" t="n">
-        <v>74.78333333333333</v>
+        <v>311</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-09-2025 12:36:27</t>
+          <t>10-09-2025 13:34:40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-09-2025 12:55:27</t>
+          <t>10-09-2025 14:07:40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-09-2025 12:55:27</t>
+          <t>10-09-2025 14:07:40</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>08-09-2025 14:10:14</t>
+          <t>11-09-2025 11:18:40</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>8974</v>
+        <v>37320</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2068,14 +2053,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2085,19 +2070,19 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-13.59044560185185</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253246</v>
+        <v>253016</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2106,37 +2091,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>194.25</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-09-2025 14:10:14</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-09-2025 14:27:14</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-09-2025 14:27:14</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>09-09-2025 09:41:29</t>
+          <t>05-09-2025 08:45:23</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>23310</v>
+        <v>8806</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2145,24 +2130,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>70</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O22" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -2174,7 +2164,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252216</v>
+        <v>253140</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2183,37 +2173,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>141.8083333333333</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-09-2025 09:41:29</t>
+          <t>05-09-2025 08:45:23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09-09-2025 10:08:29</t>
+          <t>05-09-2025 09:17:23</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09-09-2025 10:08:29</t>
+          <t>05-09-2025 09:17:23</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>09-09-2025 12:30:18</t>
+          <t>05-09-2025 10:13:13</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>17017</v>
+        <v>6700</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2222,14 +2212,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2239,19 +2229,19 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-15.52104166666667</v>
+        <v>-10.42584490740741</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253710</v>
+        <v>253249</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2260,37 +2250,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>1.616666666666667</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-09-2025 12:30:18</t>
+          <t>05-09-2025 10:13:13</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09-09-2025 12:59:18</t>
+          <t>05-09-2025 10:32:13</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>09-09-2025 12:59:18</t>
+          <t>05-09-2025 10:32:13</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09-09-2025 13:00:55</t>
+          <t>05-09-2025 11:29:58</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>194</v>
+        <v>6931</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2299,14 +2289,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2316,19 +2306,19 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252815</v>
+        <v>252664</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2337,37 +2327,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>242.9416666666667</v>
+        <v>365.975</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-09-2025 13:00:55</t>
+          <t>05-09-2025 11:29:58</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09-09-2025 13:40:55</t>
+          <t>05-09-2025 12:01:58</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>09-09-2025 13:40:55</t>
+          <t>05-09-2025 12:01:58</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10-09-2025 09:43:51</t>
+          <t>08-09-2025 10:07:57</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>29153</v>
+        <v>43917</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2376,36 +2366,43 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>76</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-5.405457175925926</v>
+        <v>-6.4221875</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253260</v>
+        <v>252216</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2414,37 +2411,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
-        <v>109.4083333333333</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10-09-2025 09:43:51</t>
+          <t>08-09-2025 10:07:57</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10-09-2025 10:21:51</t>
+          <t>08-09-2025 10:38:57</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10-09-2025 10:21:51</t>
+          <t>08-09-2025 10:38:57</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10-09-2025 12:11:16</t>
+          <t>08-09-2025 13:00:45</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>13129</v>
+        <v>17017</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2457,7 +2454,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
         <v>70</v>
@@ -2474,15 +2471,15 @@
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-16.50782407407407</v>
+        <v>-14.54219328703704</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253527</v>
+        <v>253072</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2491,37 +2488,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>67.48333333333333</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10-09-2025 12:11:16</t>
+          <t>08-09-2025 13:00:45</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10-09-2025 12:28:16</t>
+          <t>08-09-2025 13:23:45</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10-09-2025 12:28:16</t>
+          <t>08-09-2025 13:23:45</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10-09-2025 13:35:45</t>
+          <t>08-09-2025 13:52:53</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>8098</v>
+        <v>3496</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2534,7 +2531,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N27" t="n">
         <v>70</v>
@@ -2547,19 +2544,19 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-21.57839699074074</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253524</v>
+        <v>253278</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2568,37 +2565,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>58.75833333333333</v>
+        <v>28.425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10-09-2025 13:35:45</t>
+          <t>08-09-2025 13:52:53</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10-09-2025 13:50:45</t>
+          <t>08-09-2025 14:07:53</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10-09-2025 13:50:45</t>
+          <t>08-09-2025 14:07:53</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10-09-2025 14:49:30</t>
+          <t>08-09-2025 14:36:19</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>7051</v>
+        <v>3411</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2611,7 +2608,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
@@ -2631,12 +2628,12 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253375</v>
+        <v>244023</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2645,37 +2642,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>51.88333333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10-09-2025 14:49:30</t>
+          <t>08-09-2025 14:36:19</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11-09-2025 07:06:30</t>
+          <t>09-09-2025 07:01:19</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11-09-2025 07:06:30</t>
+          <t>09-09-2025 07:01:19</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11-09-2025 07:58:23</t>
+          <t>09-09-2025 07:09:37</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>6226</v>
+        <v>997</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2684,11 +2681,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
@@ -2701,11 +2698,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-344.2983506944444</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -2713,7 +2710,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253372</v>
+        <v>252833</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2722,37 +2719,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>103.775</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11-09-2025 07:58:23</t>
+          <t>09-09-2025 07:09:37</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11-09-2025 08:13:23</t>
+          <t>09-09-2025 07:30:37</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11-09-2025 08:13:23</t>
+          <t>09-09-2025 07:30:37</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11-09-2025 09:57:10</t>
+          <t>09-09-2025 08:45:24</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>12453</v>
+        <v>8974</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2761,11 +2758,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
@@ -2778,19 +2775,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-14.36486689814815</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253332</v>
+        <v>253095</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2799,37 +2796,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>184.825</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>11-09-2025 09:57:10</t>
+          <t>09-09-2025 08:45:24</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11-09-2025 10:14:10</t>
+          <t>09-09-2025 09:02:24</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11-09-2025 10:14:10</t>
+          <t>09-09-2025 09:02:24</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11-09-2025 13:18:59</t>
+          <t>09-09-2025 10:18:43</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>22179</v>
+        <v>9158</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2855,11 +2852,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-1.554855324074074</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2867,7 +2864,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253370</v>
+        <v>250891</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2876,37 +2873,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E32" t="n">
-        <v>207.5416666666667</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>11-09-2025 13:18:59</t>
+          <t>09-09-2025 10:18:43</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11-09-2025 13:35:59</t>
+          <t>09-09-2025 10:39:43</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11-09-2025 13:35:59</t>
+          <t>09-09-2025 10:39:43</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12-09-2025 09:03:32</t>
+          <t>09-09-2025 11:57:13</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>24905</v>
+        <v>9299</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2915,11 +2912,11 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
         <v>70</v>
@@ -2932,19 +2929,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-27.49806712962963</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253368</v>
+        <v>253246</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2953,37 +2950,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>103.775</v>
+        <v>194.25</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12-09-2025 09:03:32</t>
+          <t>09-09-2025 11:57:13</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12-09-2025 09:18:32</t>
+          <t>09-09-2025 12:14:13</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>12-09-2025 09:18:32</t>
+          <t>09-09-2025 12:14:13</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12-09-2025 11:02:18</t>
+          <t>10-09-2025 07:28:28</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>12453</v>
+        <v>23310</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2992,11 +2989,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
         <v>70</v>
@@ -3009,58 +3006,58 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-0.3114351851851852</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253374</v>
+        <v>253100</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>36.5</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>59.60833333333333</v>
+        <v>47.35</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>10-09-2025 07:28:28</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:36:30</t>
+          <t>10-09-2025 07:43:28</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:36:30</t>
+          <t>10-09-2025 07:43:28</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>09-09-2025 08:36:06</t>
+          <t>10-09-2025 08:30:49</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>7153</v>
+        <v>5682</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3086,58 +3083,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-2.354733796296296</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252682</v>
+        <v>253602</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E35" t="n">
-        <v>83.40833333333333</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>10-09-2025 08:30:49</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>10-09-2025 09:02:49</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>10-09-2025 09:02:49</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>04-09-2025 14:18:24</t>
+          <t>10-09-2025 10:59:54</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>10009</v>
+        <v>14050</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3150,76 +3147,71 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
         <v>76</v>
       </c>
-      <c r="O35" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P35" t="n">
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-0.4582638888888889</v>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252679</v>
+        <v>253247</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E36" t="n">
-        <v>60</v>
+        <v>109.575</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>04-09-2025 14:18:24</t>
+          <t>10-09-2025 10:59:54</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>04-09-2025 14:48:24</t>
+          <t>10-09-2025 11:31:54</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>04-09-2025 14:48:24</t>
+          <t>10-09-2025 11:31:54</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>05-09-2025 07:48:24</t>
+          <t>10-09-2025 13:21:28</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>7200</v>
+        <v>13149</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3228,80 +3220,75 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>76</v>
-      </c>
-      <c r="O36" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-0.5565798611111111</v>
       </c>
       <c r="T36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252685</v>
+        <v>253401</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>74.56666666666666</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>05-09-2025 07:48:24</t>
+          <t>10-09-2025 13:21:28</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05-09-2025 08:18:24</t>
+          <t>10-09-2025 13:38:28</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>05-09-2025 08:18:24</t>
+          <t>10-09-2025 13:38:28</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>05-09-2025 09:32:58</t>
+          <t>10-09-2025 14:01:17</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>8948</v>
+        <v>2738</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3310,80 +3297,75 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>76</v>
-      </c>
-      <c r="O37" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252582</v>
+        <v>253245</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>46.08333333333334</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>05-09-2025 09:32:58</t>
+          <t>10-09-2025 14:01:17</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05-09-2025 10:02:58</t>
+          <t>10-09-2025 14:18:17</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>05-09-2025 10:02:58</t>
+          <t>10-09-2025 14:18:17</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>05-09-2025 10:49:03</t>
+          <t>11-09-2025 08:49:07</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>5530</v>
+        <v>18100</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3392,80 +3374,75 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>76</v>
-      </c>
-      <c r="O38" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-1.367447916666667</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253314</v>
+        <v>253377</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>43.40833333333333</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>05-09-2025 10:49:03</t>
+          <t>11-09-2025 08:49:07</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05-09-2025 11:19:03</t>
+          <t>11-09-2025 09:08:07</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>05-09-2025 11:19:03</t>
+          <t>11-09-2025 09:08:07</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>05-09-2025 12:02:28</t>
+          <t>11-09-2025 11:15:50</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>5209</v>
+        <v>15326</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3474,80 +3451,75 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>76</v>
-      </c>
-      <c r="O39" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253317</v>
+        <v>253659</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>38.5</v>
       </c>
       <c r="E40" t="n">
-        <v>102.775</v>
+        <v>323.75</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>05-09-2025 12:02:28</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05-09-2025 12:32:28</t>
+          <t>09-09-2025 07:38:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>05-09-2025 12:32:28</t>
+          <t>09-09-2025 07:38:30</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:14</t>
+          <t>09-09-2025 13:02:15</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>12333</v>
+        <v>38850</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3556,14 +3528,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3573,7 +3545,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
@@ -3585,7 +3557,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253425</v>
+        <v>252002</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3594,37 +3566,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E41" t="n">
-        <v>146.35</v>
+        <v>55.675</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:14</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05-09-2025 14:50:14</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>05-09-2025 14:50:14</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>08-09-2025 09:16:35</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>17562</v>
+        <v>6681</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3633,36 +3605,43 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>76</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-10.38652199074074</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253036</v>
+        <v>253425</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3671,37 +3650,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E42" t="n">
-        <v>78.73333333333333</v>
+        <v>146.35</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-09-2025 09:16:35</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-09-2025 09:51:35</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08-09-2025 09:51:35</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>08-09-2025 11:10:19</t>
+          <t>05-09-2025 08:57:01</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>9448</v>
+        <v>17562</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3710,18 +3689,15 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" t="n">
         <v>76</v>
       </c>
-      <c r="O42" t="n">
-        <v>40299</v>
-      </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
@@ -3730,19 +3706,19 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-0.4655034722222222</v>
+        <v>-7.372934027777778</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252002</v>
+        <v>252685</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3751,37 +3727,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E43" t="n">
-        <v>55.675</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-09-2025 11:10:19</t>
+          <t>05-09-2025 08:57:01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08-09-2025 11:50:19</t>
+          <t>05-09-2025 09:27:01</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>08-09-2025 11:50:19</t>
+          <t>05-09-2025 09:27:01</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>08-09-2025 12:46:00</t>
+          <t>05-09-2025 10:41:35</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>6681</v>
+        <v>8948</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3790,19 +3766,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="n">
-        <v>70</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O43" t="n">
+        <v>40295</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3810,15 +3784,15 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>40307</v>
+        <v>40295</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-14.53194444444444</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>4</v>
@@ -3826,7 +3800,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252883</v>
+        <v>252582</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3835,37 +3809,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>247.3083333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-09-2025 12:46:00</t>
+          <t>05-09-2025 10:41:35</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08-09-2025 13:51:00</t>
+          <t>05-09-2025 11:11:35</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>08-09-2025 13:51:00</t>
+          <t>05-09-2025 11:11:35</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:18</t>
+          <t>05-09-2025 11:57:40</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>29677</v>
+        <v>5530</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3874,28 +3848,33 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>70</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O44" t="n">
+        <v>40290</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-11.41549189814815</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -3903,7 +3882,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253208</v>
+        <v>253314</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3912,37 +3891,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>30</v>
       </c>
       <c r="E45" t="n">
-        <v>104.2583333333333</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:18</t>
+          <t>05-09-2025 11:57:40</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-09-2025 10:28:18</t>
+          <t>05-09-2025 12:27:40</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-09-2025 10:28:18</t>
+          <t>05-09-2025 12:27:40</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>09-09-2025 12:12:34</t>
+          <t>05-09-2025 13:11:05</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>12511</v>
+        <v>5209</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3951,36 +3930,41 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N45" t="n">
-        <v>70</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O45" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-4.508726851851852</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253210</v>
+        <v>253036</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3993,33 +3977,33 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E46" t="n">
-        <v>94.15833333333333</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-09-2025 12:12:34</t>
+          <t>05-09-2025 13:11:05</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-09-2025 12:37:34</t>
+          <t>05-09-2025 13:41:05</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-09-2025 12:37:34</t>
+          <t>05-09-2025 13:41:05</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:43</t>
+          <t>05-09-2025 14:59:49</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>11299</v>
+        <v>9448</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4028,14 +4012,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O46" t="n">
+        <v>40299</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4045,19 +4032,19 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252601</v>
+        <v>252682</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4066,37 +4053,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>51.20833333333334</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:43</t>
+          <t>05-09-2025 14:59:49</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09-09-2025 14:41:43</t>
+          <t>08-09-2025 07:29:49</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>09-09-2025 14:41:43</t>
+          <t>08-09-2025 07:29:49</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10-09-2025 07:32:56</t>
+          <t>08-09-2025 08:53:13</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>6145</v>
+        <v>10009</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4105,36 +4092,41 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
-        <v>70</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O47" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-0.3702951388888889</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253223</v>
+        <v>253710</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4143,37 +4135,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E48" t="n">
-        <v>16.4</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10-09-2025 07:32:56</t>
+          <t>08-09-2025 08:53:13</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10-09-2025 08:02:56</t>
+          <t>08-09-2025 09:33:13</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10-09-2025 08:02:56</t>
+          <t>08-09-2025 09:33:13</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10-09-2025 08:19:20</t>
+          <t>08-09-2025 09:34:50</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1968</v>
+        <v>194</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4182,11 +4174,11 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
         <v>70</v>
@@ -4199,19 +4191,19 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-9.34675925925926</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>235572</v>
+        <v>252601</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4220,37 +4212,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E49" t="n">
-        <v>82.98333333333333</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10-09-2025 08:19:20</t>
+          <t>08-09-2025 09:34:50</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10-09-2025 09:24:20</t>
+          <t>08-09-2025 10:54:50</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10-09-2025 09:24:20</t>
+          <t>08-09-2025 10:54:50</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10-09-2025 10:47:19</t>
+          <t>08-09-2025 11:46:03</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>9958</v>
+        <v>6145</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4259,11 +4251,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N49" t="n">
         <v>70</v>
@@ -4276,19 +4268,19 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-674.4495254629629</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253245</v>
+        <v>253223</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4297,37 +4289,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>150.8333333333333</v>
+        <v>16.4</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10-09-2025 10:47:19</t>
+          <t>08-09-2025 11:46:03</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10-09-2025 11:17:19</t>
+          <t>08-09-2025 12:16:03</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10-09-2025 11:17:19</t>
+          <t>08-09-2025 12:16:03</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10-09-2025 13:48:09</t>
+          <t>08-09-2025 12:32:27</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>18100</v>
+        <v>1968</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4336,11 +4328,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
@@ -4353,19 +4345,19 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.5751041666666666</v>
+        <v>-7.522534722222222</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253401</v>
+        <v>253208</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4374,37 +4366,37 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E51" t="n">
-        <v>22.81666666666667</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10-09-2025 13:48:09</t>
+          <t>08-09-2025 12:32:27</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10-09-2025 14:18:09</t>
+          <t>08-09-2025 13:57:27</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>10-09-2025 14:18:09</t>
+          <t>08-09-2025 13:57:27</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10-09-2025 14:40:58</t>
+          <t>09-09-2025 07:41:42</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>2738</v>
+        <v>12511</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4413,11 +4405,11 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
@@ -4430,58 +4422,58 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-4.320630787037037</v>
       </c>
       <c r="T51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253249</v>
+        <v>253210</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>57.75833333333333</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-09-2025 07:41:42</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>09-09-2025 08:06:42</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>09-09-2025 08:06:42</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>08-09-2025 08:16:45</t>
+          <t>09-09-2025 09:40:52</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>6931</v>
+        <v>11299</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4490,14 +4482,14 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4507,58 +4499,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253318</v>
+        <v>253686</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E53" t="n">
-        <v>51.55</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-09-2025 08:16:45</t>
+          <t>09-09-2025 09:40:52</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-09-2025 08:31:45</t>
+          <t>09-09-2025 10:45:52</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-09-2025 08:31:45</t>
+          <t>09-09-2025 10:45:52</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:18</t>
+          <t>09-09-2025 11:30:06</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>6186</v>
+        <v>5308</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4567,14 +4559,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -4584,11 +4576,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.3911863425925926</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -4596,46 +4588,46 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253686</v>
+        <v>252883</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E54" t="n">
-        <v>44.23333333333333</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-09-2025 11:30:06</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>09-09-2025 12:30:06</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>09-09-2025 12:30:06</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>09-09-2025 08:24:14</t>
+          <t>10-09-2025 08:37:24</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>5308</v>
+        <v>29677</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4644,11 +4636,11 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N54" t="n">
         <v>70</v>
@@ -4661,11 +4653,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-12.35931134259259</v>
       </c>
       <c r="T54" t="n">
         <v>1</v>
@@ -4673,46 +4665,46 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253687</v>
+        <v>253194</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E55" t="n">
-        <v>44.23333333333333</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-09-2025 08:24:14</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:14</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:14</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:28</t>
+          <t>08-09-2025 10:38:05</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>5308</v>
+        <v>23890</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4721,14 +4713,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4738,11 +4730,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-19.44311342592593</v>
       </c>
       <c r="T55" t="n">
         <v>1</v>
@@ -4750,46 +4742,46 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>253659</v>
+        <v>253409</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>323.75</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:28</t>
+          <t>08-09-2025 10:38:05</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:28</t>
+          <t>08-09-2025 10:53:05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:28</t>
+          <t>08-09-2025 10:53:05</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10-09-2025 07:22:13</t>
+          <t>08-09-2025 11:20:16</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>38850</v>
+        <v>3262</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4798,14 +4790,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4815,11 +4807,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0</v>
+        <v>-10.47240740740741</v>
       </c>
       <c r="T56" t="n">
         <v>1</v>
@@ -4827,7 +4819,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>253247</v>
+        <v>252843</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4836,37 +4828,37 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E57" t="n">
-        <v>109.575</v>
+        <v>19.2</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10-09-2025 07:22:13</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10-09-2025 07:52:13</t>
+          <t>09-09-2025 07:55:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-09-2025 07:52:13</t>
+          <t>09-09-2025 07:55:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10-09-2025 09:41:47</t>
+          <t>09-09-2025 08:14:12</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>13149</v>
+        <v>2304</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4875,14 +4867,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -4892,11 +4884,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.4040219907407407</v>
+        <v>-41.34319444444444</v>
       </c>
       <c r="T57" t="n">
         <v>2</v>
@@ -4904,7 +4896,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>253721</v>
+        <v>253522</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4913,37 +4905,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E58" t="n">
-        <v>39.39166666666667</v>
+        <v>198.625</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10-09-2025 09:41:47</t>
+          <t>09-09-2025 08:14:12</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10-09-2025 10:11:47</t>
+          <t>09-09-2025 09:14:12</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10-09-2025 10:11:47</t>
+          <t>09-09-2025 09:14:12</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10-09-2025 10:51:11</t>
+          <t>09-09-2025 12:32:49</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>4727</v>
+        <v>23835</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4969,7 +4961,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
@@ -4981,7 +4973,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>253602</v>
+        <v>253527</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4990,37 +4982,37 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E59" t="n">
-        <v>117.0833333333333</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10-09-2025 10:51:11</t>
+          <t>09-09-2025 12:32:49</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10-09-2025 11:31:11</t>
+          <t>09-09-2025 12:57:49</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>10-09-2025 11:31:11</t>
+          <t>09-09-2025 12:57:49</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>10-09-2025 13:28:16</t>
+          <t>09-09-2025 14:05:18</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>14050</v>
+        <v>8098</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5029,14 +5021,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5046,58 +5038,58 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.5612962962962963</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>253016</v>
+        <v>253721</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E60" t="n">
-        <v>73.38333333333334</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>09-09-2025 14:05:18</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>09-09-2025 14:40:18</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>09-09-2025 14:40:18</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>10-09-2025 07:19:42</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>8806</v>
+        <v>4727</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5106,80 +5098,75 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>152</v>
-      </c>
-      <c r="O60" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252702</v>
+        <v>253332</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>58.38333333333333</v>
+        <v>184.825</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>10-09-2025 07:19:42</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05-09-2025 09:13:23</t>
+          <t>10-09-2025 07:49:42</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>05-09-2025 09:13:23</t>
+          <t>10-09-2025 07:49:42</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>05-09-2025 10:11:46</t>
+          <t>10-09-2025 10:54:31</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>7006</v>
+        <v>22179</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5188,80 +5175,75 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>152</v>
-      </c>
-      <c r="O61" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-0.45453125</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253362</v>
+        <v>253370</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>58.38333333333333</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>05-09-2025 10:11:46</t>
+          <t>10-09-2025 10:54:31</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>10-09-2025 11:24:31</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>10-09-2025 11:24:31</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>05-09-2025 11:35:09</t>
+          <t>10-09-2025 14:52:04</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>7006</v>
+        <v>24905</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5270,80 +5252,75 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>152</v>
-      </c>
-      <c r="O62" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252995</v>
+        <v>244743</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E63" t="n">
-        <v>68.31666666666666</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>05-09-2025 11:35:09</t>
+          <t>10-09-2025 14:52:04</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>05-09-2025 12:15:09</t>
+          <t>11-09-2025 07:22:04</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>05-09-2025 12:15:09</t>
+          <t>11-09-2025 07:22:04</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>05-09-2025 13:23:28</t>
+          <t>11-09-2025 07:51:24</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>8198</v>
+        <v>3521</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5352,14 +5329,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5369,11 +5346,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-4.557962962962963</v>
+        <v>-17.32736689814815</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5381,46 +5358,46 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253259</v>
+        <v>253261</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E64" t="n">
-        <v>69.23333333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>05-09-2025 13:23:28</t>
+          <t>11-09-2025 07:51:24</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>05-09-2025 13:58:28</t>
+          <t>11-09-2025 08:31:24</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>05-09-2025 13:58:28</t>
+          <t>11-09-2025 08:31:24</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>08-09-2025 07:07:42</t>
+          <t>11-09-2025 08:50:15</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>8308</v>
+        <v>2262</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5429,25 +5406,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P64" t="n">
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5455,7 +5427,7 @@
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-0.2970138888888889</v>
+        <v>-17.3682349537037</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5463,46 +5435,46 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253268</v>
+        <v>253436</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E65" t="n">
-        <v>78.55833333333334</v>
+        <v>18.85</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-09-2025 07:07:42</t>
+          <t>11-09-2025 08:50:15</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:42</t>
+          <t>11-09-2025 09:15:15</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:42</t>
+          <t>11-09-2025 09:15:15</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:15</t>
+          <t>11-09-2025 09:34:06</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>9427</v>
+        <v>2262</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5515,7 +5487,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N65" t="n">
         <v>70</v>
@@ -5528,58 +5500,58 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-1.398686342592593</v>
       </c>
       <c r="T65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253072</v>
+        <v>253524</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E66" t="n">
-        <v>29.13333333333333</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:15</t>
+          <t>11-09-2025 09:34:06</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08-09-2025 09:36:15</t>
+          <t>11-09-2025 10:14:06</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>08-09-2025 09:36:15</t>
+          <t>11-09-2025 10:14:06</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>08-09-2025 10:05:23</t>
+          <t>11-09-2025 11:12:52</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>3496</v>
+        <v>7051</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5592,7 +5564,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
         <v>70</v>
@@ -5605,58 +5577,58 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-21.42041087962963</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253278</v>
+        <v>252529</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E67" t="n">
-        <v>28.425</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-09-2025 10:05:23</t>
+          <t>11-09-2025 11:12:52</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08-09-2025 10:30:23</t>
+          <t>11-09-2025 11:52:52</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08-09-2025 10:30:23</t>
+          <t>11-09-2025 11:52:52</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>08-09-2025 10:58:49</t>
+          <t>11-09-2025 13:00:57</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>3411</v>
+        <v>8170</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5665,14 +5637,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5682,11 +5654,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-6.542326388888889</v>
       </c>
       <c r="T67" t="n">
         <v>2</v>
@@ -5694,46 +5666,46 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253271</v>
+        <v>253455</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E68" t="n">
-        <v>42.63333333333333</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-09-2025 10:58:49</t>
+          <t>11-09-2025 13:00:57</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-09-2025 11:23:49</t>
+          <t>11-09-2025 13:35:57</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-09-2025 11:23:49</t>
+          <t>11-09-2025 13:35:57</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>08-09-2025 12:06:27</t>
+          <t>11-09-2025 14:31:30</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>5116</v>
+        <v>6667</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5746,7 +5718,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N68" t="n">
         <v>70</v>
@@ -5759,58 +5731,58 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-3.504479166666667</v>
+        <v>-3.60521412037037</v>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>253267</v>
+        <v>253668</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>35</v>
       </c>
       <c r="E69" t="n">
-        <v>164.3666666666667</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-09-2025 12:06:27</t>
+          <t>11-09-2025 14:31:30</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:27</t>
+          <t>12-09-2025 07:06:30</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:27</t>
+          <t>12-09-2025 07:06:30</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>09-09-2025 07:25:49</t>
+          <t>12-09-2025 10:16:22</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>19724</v>
+        <v>22784</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5819,11 +5791,11 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
         <v>70</v>
@@ -5836,58 +5808,58 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253359</v>
+        <v>252741</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>134.0166666666667</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>09-09-2025 07:25:49</t>
+          <t>12-09-2025 10:16:22</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09-09-2025 07:55:49</t>
+          <t>12-09-2025 10:56:22</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>09-09-2025 07:55:49</t>
+          <t>12-09-2025 10:56:22</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>09-09-2025 10:09:50</t>
+          <t>12-09-2025 11:57:52</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>16082</v>
+        <v>7379</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5900,7 +5872,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N70" t="n">
         <v>70</v>
@@ -5913,58 +5885,58 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250284</v>
+        <v>253260</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E71" t="n">
-        <v>146.35</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>09-09-2025 10:09:50</t>
+          <t>12-09-2025 11:57:52</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09-09-2025 10:59:50</t>
+          <t>12-09-2025 12:27:52</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>09-09-2025 10:59:50</t>
+          <t>12-09-2025 12:27:52</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>09-09-2025 13:26:11</t>
+          <t>12-09-2025 14:17:16</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>17562</v>
+        <v>13129</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5977,7 +5949,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
         <v>70</v>
@@ -5990,11 +5962,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-181.559849537037</v>
+        <v>-18.59532986111111</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6002,78 +5974,1802 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
+        <v>253295</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>30</v>
+      </c>
+      <c r="E72" t="n">
+        <v>230.075</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:17:16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:47:16</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:47:16</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>15-09-2025 10:37:21</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>27609</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>40274</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>29-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>-3.442604166666666</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>253525</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>40</v>
+      </c>
+      <c r="E73" t="n">
+        <v>92.14166666666667</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>15-09-2025 10:37:21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>15-09-2025 11:17:21</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>15-09-2025 11:17:21</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:49:29</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>11057</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>70</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>26-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>253367</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>25</v>
+      </c>
+      <c r="E74" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:49:29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>15-09-2025 13:14:29</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>15-09-2025 13:14:29</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>16-09-2025 07:30:11</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>16284</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>70</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>253376</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>25</v>
+      </c>
+      <c r="E75" t="n">
+        <v>179.6083333333333</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>16-09-2025 07:30:11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>16-09-2025 07:55:11</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>16-09-2025 07:55:11</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:54:48</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>21553</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>70</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>252274</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>45</v>
+      </c>
+      <c r="E76" t="n">
+        <v>173.4166666666667</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:54:48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>16-09-2025 11:39:48</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>16-09-2025 11:39:48</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>16-09-2025 14:33:13</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>20810</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>76</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>09-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>-7.606400462962963</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>35</v>
+      </c>
+      <c r="E77" t="n">
+        <v>163.6666666666667</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>16-09-2025 14:33:13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>17-09-2025 07:08:13</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>17-09-2025 07:08:13</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:51:53</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>19640</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>6</v>
+      </c>
+      <c r="N77" t="n">
+        <v>70</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>252397</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>40</v>
+      </c>
+      <c r="E78" t="n">
+        <v>115.925</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:51:53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>17-09-2025 10:31:53</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>17-09-2025 10:31:53</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:27:48</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>13911</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="n">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>253271</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>40</v>
+      </c>
+      <c r="E79" t="n">
+        <v>42.63333333333333</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:27:48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:07:48</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:07:48</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:50:26</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>5116</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>6</v>
+      </c>
+      <c r="N79" t="n">
+        <v>70</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>05-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>-12.57669560185185</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>253528</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>40</v>
+      </c>
+      <c r="E80" t="n">
+        <v>119.175</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:50:26</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>17-09-2025 14:30:26</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>17-09-2025 14:30:26</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>18-09-2025 08:29:37</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>14301</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="n">
+        <v>70</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>253472</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>35</v>
+      </c>
+      <c r="E81" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>18-09-2025 08:29:37</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>18-09-2025 09:04:37</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>18-09-2025 09:04:37</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>18-09-2025 13:56:25</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>35016</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="n">
+        <v>70</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>16-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>-2.580844907407407</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>253392</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>35</v>
+      </c>
+      <c r="E82" t="n">
+        <v>129.3833333333333</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>18-09-2025 13:56:25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>18-09-2025 14:31:25</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>18-09-2025 14:31:25</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>19-09-2025 08:40:48</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>15526</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>CASON ;H7 ;R5</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="n">
+        <v>70</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>19-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-0.3616666666666667</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>253393</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>25</v>
+      </c>
+      <c r="E83" t="n">
+        <v>77.63333333333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>19-09-2025 08:40:48</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>19-09-2025 09:05:48</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>19-09-2025 09:05:48</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:23:26</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>9316</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>CASON ;H7 ;R5</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="n">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>19-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>-0.4329398148148148</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>30</v>
+      </c>
+      <c r="E84" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:23:26</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:53:26</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:53:26</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>19-09-2025 13:39:56</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>19980</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="n">
+        <v>70</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>-9.569398148148148</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>253371</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>35</v>
+      </c>
+      <c r="E85" t="n">
+        <v>107.7666666666667</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>19-09-2025 13:39:56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>19-09-2025 14:14:56</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>19-09-2025 14:14:56</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>22-09-2025 08:02:42</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>12932</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>253259</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>35</v>
+      </c>
+      <c r="E86" t="n">
+        <v>69.23333333333333</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:44:14</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>8308</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="n">
+        <v>70</v>
+      </c>
+      <c r="O86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>17-03-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>55</v>
+      </c>
+      <c r="E87" t="n">
+        <v>146.35</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:44:14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:39:14</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:39:14</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:05:35</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>17562</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>8</v>
+      </c>
+      <c r="N87" t="n">
+        <v>70</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>12-03-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>-177.5038773148148</v>
+      </c>
+      <c r="T87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>252679</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>45</v>
+      </c>
+      <c r="E88" t="n">
+        <v>60</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:05:35</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:50:35</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:50:35</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:50:35</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>7200</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="n">
+        <v>76</v>
+      </c>
+      <c r="O88" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>01-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>252702</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>40</v>
+      </c>
+      <c r="E89" t="n">
+        <v>58.38333333333333</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:50:35</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:30:35</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:30:35</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:28:58</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>7006</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="n">
+        <v>152</v>
+      </c>
+      <c r="O89" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>04-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>-0.3117824074074074</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>253362</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>58.38333333333333</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:28:58</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:53:58</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:53:58</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:52:21</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>7006</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="n">
+        <v>152</v>
+      </c>
+      <c r="O90" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>15-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>-0.3696875</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>253591</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>40</v>
+      </c>
+      <c r="E91" t="n">
+        <v>17.41666666666667</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:52:21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:32:21</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:32:21</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:49:46</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>2090</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="n">
+        <v>76</v>
+      </c>
+      <c r="O91" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>24-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>-0.4095601851851852</v>
+      </c>
+      <c r="T91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>253318</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>35</v>
+      </c>
+      <c r="E92" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:49:46</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:24:46</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:24:46</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:16:19</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>6186</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="n">
+        <v>76</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>-0.4696643518518518</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>253317</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>25</v>
+      </c>
+      <c r="E93" t="n">
+        <v>102.775</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:16:19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:41:19</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:41:19</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:24:05</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>12333</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="n">
+        <v>76</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S93" s="1" t="n">
+        <v>-0.5583969907407408</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
         <v>252980</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>03-09-2025 14:00:00</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
         <v>17.075</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>08-09-2025 07:17:04</t>
         </is>
       </c>
-      <c r="J72" t="n">
+      <c r="J94" t="n">
         <v>2049</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="inlineStr">
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr">
         <is>
           <t>08-09-2025 00:00:00</t>
         </is>
       </c>
-      <c r="S72" s="1" t="n">
+      <c r="S94" s="1" t="n">
         <v>-0.3035243055555555</v>
       </c>
-      <c r="T72" t="n">
+      <c r="T94" t="n">
         <v>7</v>
       </c>
     </row>
